--- a/data_year/zb/能源/人均生活能源消费量.xlsx
+++ b/data_year/zb/能源/人均生活能源消费量.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,547 +473,293 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.559706014</v>
+        <v>16.9615647337</v>
       </c>
       <c r="C2" t="n">
-        <v>6.7979519184</v>
+        <v>11.5</v>
       </c>
       <c r="D2" t="n">
-        <v>10.0107314407</v>
+        <v>12.5</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6</v>
+        <v>0.145</v>
       </c>
       <c r="F2" t="n">
-        <v>66.9781292446</v>
+        <v>68.4693078705</v>
       </c>
       <c r="G2" t="n">
-        <v>132</v>
+        <v>273</v>
       </c>
       <c r="H2" t="n">
-        <v>114.9927335078</v>
+        <v>383.0911897616</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.3109250305</v>
+        <v>19.7</v>
       </c>
       <c r="C3" t="n">
-        <v>6.7306679247</v>
+        <v>11.9</v>
       </c>
       <c r="D3" t="n">
-        <v>9.3564492668</v>
+        <v>10.9</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6</v>
+        <v>0.173</v>
       </c>
       <c r="F3" t="n">
-        <v>66.126115501</v>
+        <v>68</v>
       </c>
       <c r="G3" t="n">
-        <v>136</v>
+        <v>294</v>
       </c>
       <c r="H3" t="n">
-        <v>126.5267130558</v>
+        <v>418</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.6051233989</v>
+        <v>21.3</v>
       </c>
       <c r="C4" t="n">
-        <v>7.5683380194</v>
+        <v>12.1</v>
       </c>
       <c r="D4" t="n">
-        <v>9.8250546704</v>
+        <v>10.1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3</v>
+        <v>0.144</v>
       </c>
       <c r="F4" t="n">
-        <v>65.70321774449999</v>
+        <v>68</v>
       </c>
       <c r="G4" t="n">
-        <v>146</v>
+        <v>312</v>
       </c>
       <c r="H4" t="n">
-        <v>138.348953452</v>
+        <v>459</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.0274759391</v>
+        <v>23.7</v>
       </c>
       <c r="C5" t="n">
-        <v>8.636525923600001</v>
+        <v>13.5</v>
       </c>
       <c r="D5" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.3</v>
-      </c>
+        <v>7.9</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>69.8906395529</v>
+        <v>68</v>
       </c>
       <c r="G5" t="n">
-        <v>166</v>
+        <v>334</v>
       </c>
       <c r="H5" t="n">
-        <v>159.7361067991</v>
+        <v>513</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.1864282545</v>
+        <v>25</v>
       </c>
       <c r="C6" t="n">
-        <v>10.419774689</v>
+        <v>15.8</v>
       </c>
       <c r="D6" t="n">
-        <v>10.6537044538</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.2</v>
-      </c>
+        <v>7.1</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>75.3675245877</v>
+        <v>68</v>
       </c>
       <c r="G6" t="n">
-        <v>191</v>
+        <v>344</v>
       </c>
       <c r="H6" t="n">
-        <v>183.9776543024</v>
+        <v>523</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.0925658884</v>
+        <v>26.1</v>
       </c>
       <c r="C7" t="n">
-        <v>10.1919195993</v>
+        <v>18.5</v>
       </c>
       <c r="D7" t="n">
-        <v>11.1059123125</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.2</v>
-      </c>
+        <v>5.8</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>77.0025070184</v>
+        <v>70</v>
       </c>
       <c r="G7" t="n">
-        <v>211</v>
+        <v>366</v>
       </c>
       <c r="H7" t="n">
-        <v>221.2752738318</v>
+        <v>548</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.8259675672</v>
+        <v>27.4</v>
       </c>
       <c r="C8" t="n">
-        <v>11.5</v>
+        <v>21.3</v>
       </c>
       <c r="D8" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.174331911760194</v>
-      </c>
+        <v>4.5</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>76.5536757639</v>
+        <v>68</v>
       </c>
       <c r="G8" t="n">
-        <v>230</v>
+        <v>392</v>
       </c>
       <c r="H8" t="n">
-        <v>255.6467483334</v>
+        <v>607</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10.8810708066</v>
+        <v>30.1</v>
       </c>
       <c r="C9" t="n">
-        <v>12.4282467742</v>
+        <v>23.1</v>
       </c>
       <c r="D9" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.147817146412623</v>
-      </c>
+        <v>3.7</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>74.0626837698</v>
+        <v>66</v>
       </c>
       <c r="G9" t="n">
-        <v>250</v>
+        <v>412</v>
       </c>
       <c r="H9" t="n">
-        <v>308.275001233</v>
+        <v>650</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12.8410793754</v>
+        <v>33.4</v>
       </c>
       <c r="C10" t="n">
-        <v>10.9990903292</v>
+        <v>22.4</v>
       </c>
       <c r="D10" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.1</v>
-      </c>
+        <v>3.4</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>69.056546799</v>
+        <v>55</v>
       </c>
       <c r="G10" t="n">
-        <v>254</v>
+        <v>431</v>
       </c>
       <c r="H10" t="n">
-        <v>331.8675428697</v>
+        <v>717</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.3482565389</v>
+        <v>35.7</v>
       </c>
       <c r="C11" t="n">
-        <v>11.2352207683</v>
+        <v>20.3</v>
       </c>
       <c r="D11" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.14</v>
-      </c>
+        <v>3.3</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>68.52042425969999</v>
+        <v>47</v>
       </c>
       <c r="G11" t="n">
-        <v>264</v>
+        <v>438</v>
       </c>
       <c r="H11" t="n">
-        <v>365.9811006115</v>
+        <v>756</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16.9615647337</v>
+        <v>39.7</v>
       </c>
       <c r="C12" t="n">
-        <v>11.5</v>
+        <v>20.3</v>
       </c>
       <c r="D12" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.145</v>
-      </c>
+        <v>3.5</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>68.4693078705</v>
+        <v>45</v>
       </c>
       <c r="G12" t="n">
-        <v>273</v>
+        <v>456</v>
       </c>
       <c r="H12" t="n">
-        <v>383.0911897616</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="C13" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D13" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.173</v>
-      </c>
-      <c r="F13" t="n">
-        <v>68</v>
-      </c>
-      <c r="G13" t="n">
-        <v>294</v>
-      </c>
-      <c r="H13" t="n">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.144</v>
-      </c>
-      <c r="F14" t="n">
-        <v>68</v>
-      </c>
-      <c r="G14" t="n">
-        <v>312</v>
-      </c>
-      <c r="H14" t="n">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="C15" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="D15" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
-        <v>68</v>
-      </c>
-      <c r="G15" t="n">
-        <v>334</v>
-      </c>
-      <c r="H15" t="n">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>25</v>
-      </c>
-      <c r="C16" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="D16" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="n">
-        <v>68</v>
-      </c>
-      <c r="G16" t="n">
-        <v>344</v>
-      </c>
-      <c r="H16" t="n">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="D17" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="n">
-        <v>70</v>
-      </c>
-      <c r="G17" t="n">
-        <v>366</v>
-      </c>
-      <c r="H17" t="n">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="C18" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="D18" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="n">
-        <v>68</v>
-      </c>
-      <c r="G18" t="n">
-        <v>392</v>
-      </c>
-      <c r="H18" t="n">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>30.1</v>
-      </c>
-      <c r="C19" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
-        <v>66</v>
-      </c>
-      <c r="G19" t="n">
-        <v>412</v>
-      </c>
-      <c r="H19" t="n">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="C20" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="D20" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="n">
-        <v>55</v>
-      </c>
-      <c r="G20" t="n">
-        <v>431</v>
-      </c>
-      <c r="H20" t="n">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>35.7</v>
-      </c>
-      <c r="C21" t="n">
-        <v>20.3</v>
-      </c>
-      <c r="D21" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="n">
-        <v>47</v>
-      </c>
-      <c r="G21" t="n">
-        <v>438</v>
-      </c>
-      <c r="H21" t="n">
-        <v>756</v>
+        <v>808</v>
       </c>
     </row>
   </sheetData>
